--- a/Jan die alles kan/Testrapport(1).xlsx
+++ b/Jan die alles kan/Testrapport(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moreno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander\Documents\GitHub\P3PProject\Jan die alles kan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,22 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -282,8 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,76 +737,76 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:E13">
-    <sortCondition ref="E2:E13" customList="Hoog,Middel,Laag"/>
+  <sortState ref="A2:E14">
+    <sortCondition ref="E2:E14" customList="Hoog,Middel,Laag"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Jan die alles kan/Testrapport(1).xlsx
+++ b/Jan die alles kan/Testrapport(1).xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -741,7 +741,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>40</v>

--- a/Jan die alles kan/Testrapport(1).xlsx
+++ b/Jan die alles kan/Testrapport(1).xlsx
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -656,7 +656,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>37</v>
@@ -758,7 +758,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
@@ -775,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
